--- a/TestExel/Test1.xlsx
+++ b/TestExel/Test1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C42CD20E-2D06-48FF-853E-2102AAC6E873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7F1E8429-F684-4180-A560-FFB93EF303BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19710" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19740" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
